--- a/data/trans_orig/P36B08-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12549</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6073</v>
+        <v>6837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21592</v>
+        <v>21203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0215130071405869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01041085247798772</v>
+        <v>0.01172136421919963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03701568255944632</v>
+        <v>0.03634922118545612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -764,19 +764,19 @@
         <v>16384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9778</v>
+        <v>9707</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25435</v>
+        <v>25260</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01776339663255442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01060135602308354</v>
+        <v>0.01052409498251868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02757689349739807</v>
+        <v>0.02738713220191852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -785,19 +785,19 @@
         <v>28932</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20244</v>
+        <v>19915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41640</v>
+        <v>42073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01921605109087049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01344529678113109</v>
+        <v>0.01322661778310195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02765616999762237</v>
+        <v>0.02794368113681239</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>53650</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41270</v>
+        <v>40136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69176</v>
+        <v>68933</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09197515438732236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07075234100099569</v>
+        <v>0.0688079826643329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1185935923385613</v>
+        <v>0.1181758459510542</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -835,19 +835,19 @@
         <v>46945</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34655</v>
+        <v>34290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62326</v>
+        <v>62863</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05089801856454076</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03757298180038311</v>
+        <v>0.03717708529607681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06757393387699639</v>
+        <v>0.06815636894058813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -856,19 +856,19 @@
         <v>100595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82674</v>
+        <v>81573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120929</v>
+        <v>123548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06681190731644997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05490927910465801</v>
+        <v>0.05417796648282281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08031736384882497</v>
+        <v>0.08205677205302998</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>186856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165161</v>
+        <v>165159</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>211563</v>
+        <v>209598</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3203389095438584</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2831459410835003</v>
+        <v>0.2831428571406354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3626961655171533</v>
+        <v>0.3593275146979226</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>212</v>
@@ -906,19 +906,19 @@
         <v>215558</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191773</v>
+        <v>188765</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>243271</v>
+        <v>240510</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2337097156302271</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2079214567746587</v>
+        <v>0.2046606727986708</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2637563482460217</v>
+        <v>0.2607625961540772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>399</v>
@@ -927,19 +927,19 @@
         <v>402414</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>365863</v>
+        <v>370668</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>438384</v>
+        <v>438870</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2672711440744303</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.242994963340627</v>
+        <v>0.2461863739074485</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.291160960945742</v>
+        <v>0.2914843449828373</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>233652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209103</v>
+        <v>209773</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>258258</v>
+        <v>255595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4005635854225624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3584786942109295</v>
+        <v>0.3596272472893952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.442747637566379</v>
+        <v>0.4381833649478247</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>427</v>
@@ -977,19 +977,19 @@
         <v>449325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>420028</v>
+        <v>417784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>480950</v>
+        <v>481276</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4871612993035793</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4553970232429335</v>
+        <v>0.4529645767320539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5214492906463727</v>
+        <v>0.5218030850365087</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>652</v>
@@ -998,19 +998,19 @@
         <v>682976</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>644754</v>
+        <v>641552</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>724651</v>
+        <v>718565</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4536120666886835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4282260169362779</v>
+        <v>0.4260990092187804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4812911885605392</v>
+        <v>0.477248657050457</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>96601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80593</v>
+        <v>80509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116432</v>
+        <v>119313</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.16560934350567</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1381653970266766</v>
+        <v>0.1380215345435115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1996072933691679</v>
+        <v>0.2045459313341057</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>185</v>
@@ -1048,19 +1048,19 @@
         <v>194121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>170087</v>
+        <v>169390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217049</v>
+        <v>221018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2104675698690984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1844100008802644</v>
+        <v>0.1836534692938711</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2353257601459446</v>
+        <v>0.2396289525384144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>281</v>
@@ -1069,19 +1069,19 @@
         <v>290722</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259543</v>
+        <v>260895</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>322023</v>
+        <v>324093</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1930888308295657</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1723803610713336</v>
+        <v>0.173278678112097</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2138776935170402</v>
+        <v>0.2152528211580678</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>25717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17167</v>
+        <v>18058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36250</v>
+        <v>37473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02385892599225581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01592654115512829</v>
+        <v>0.01675289027680451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03363076477353833</v>
+        <v>0.03476528493208794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1194,19 +1194,19 @@
         <v>8165</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3923</v>
+        <v>3968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15949</v>
+        <v>15379</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007720460070801057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003709220985237029</v>
+        <v>0.003751991546648839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01508138204952577</v>
+        <v>0.01454239677085949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1215,19 +1215,19 @@
         <v>33882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24238</v>
+        <v>24088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47182</v>
+        <v>47130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01586661308370715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01135033946125338</v>
+        <v>0.01128031717855736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02209500214198079</v>
+        <v>0.02207049513061242</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>74302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58976</v>
+        <v>58265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92189</v>
+        <v>91561</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06893230867628128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05471420008430864</v>
+        <v>0.05405402276564402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08552663683895116</v>
+        <v>0.08494449702096478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -1265,19 +1265,19 @@
         <v>53840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41508</v>
+        <v>41471</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69089</v>
+        <v>68714</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05091113066724191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03924971282329853</v>
+        <v>0.03921491367667691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06532988020158878</v>
+        <v>0.06497516901127864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>127</v>
@@ -1286,19 +1286,19 @@
         <v>128142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106945</v>
+        <v>106985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>154154</v>
+        <v>149993</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06000761321080823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05008127785771113</v>
+        <v>0.05009980299861129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07218888894404173</v>
+        <v>0.07023996232121804</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>287708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>260557</v>
+        <v>258535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>318222</v>
+        <v>317677</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2669169757904244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2417275348008381</v>
+        <v>0.239852124558329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2952254630971726</v>
+        <v>0.2947198620000729</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>238</v>
@@ -1336,19 +1336,19 @@
         <v>243430</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>218099</v>
+        <v>217368</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>272268</v>
+        <v>273073</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2301855621340687</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2062326542227371</v>
+        <v>0.2055417978344014</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2574541190783591</v>
+        <v>0.2582153390679439</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>516</v>
@@ -1357,19 +1357,19 @@
         <v>531138</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>488383</v>
+        <v>492998</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>572697</v>
+        <v>567379</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2487263402651074</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.228704579760099</v>
+        <v>0.2308655601808247</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2681880575163467</v>
+        <v>0.2656973199172954</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>485320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>452796</v>
+        <v>451924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>515251</v>
+        <v>516874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4502486791654843</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4200751102064983</v>
+        <v>0.4192659311958989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4780165733295406</v>
+        <v>0.4795220762967163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>443</v>
@@ -1407,19 +1407,19 @@
         <v>452928</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>422181</v>
+        <v>421299</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>483406</v>
+        <v>486897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4282853690038297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3992114095095153</v>
+        <v>0.3983773000717645</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4571053408771421</v>
+        <v>0.4604063477848933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>922</v>
@@ -1428,19 +1428,19 @@
         <v>938248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>895803</v>
+        <v>893575</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>987320</v>
+        <v>985526</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4393717068328112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4194948770007096</v>
+        <v>0.4184518520309052</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4623514188055919</v>
+        <v>0.4615111116368905</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>204846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183128</v>
+        <v>181638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235807</v>
+        <v>231749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1900431103755542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.169894448864316</v>
+        <v>0.1685118097479692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2187668099139838</v>
+        <v>0.2150017775313624</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1478,19 +1478,19 @@
         <v>299175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268870</v>
+        <v>269365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327844</v>
+        <v>329412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2828974781240587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.254241661868823</v>
+        <v>0.2547093733061092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3100069181399617</v>
+        <v>0.3114899164551939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>483</v>
@@ -1499,19 +1499,19 @@
         <v>504021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>463673</v>
+        <v>461838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>542511</v>
+        <v>546221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2360277266075659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2171331393205496</v>
+        <v>0.2162737411313256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2540522480490667</v>
+        <v>0.25578935078447</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>19974</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12933</v>
+        <v>12669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29685</v>
+        <v>29493</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01780827224313504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01153088048396299</v>
+        <v>0.01129571242380405</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02646718740167113</v>
+        <v>0.02629565412644494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>12096</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6238</v>
+        <v>6755</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21017</v>
+        <v>20947</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01218265055829759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006282701415107796</v>
+        <v>0.006803842953539383</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02116732642114114</v>
+        <v>0.02109703295217041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1645,19 +1645,19 @@
         <v>32070</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22725</v>
+        <v>21991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43155</v>
+        <v>44165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01516668594081984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01074722354180834</v>
+        <v>0.01040029637731891</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02040934711674339</v>
+        <v>0.02088710502910074</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>73884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59083</v>
+        <v>58926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90661</v>
+        <v>92462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0658737011670214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05267748602249704</v>
+        <v>0.05253799969129842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08083214406190511</v>
+        <v>0.08243767622529487</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1695,19 +1695,19 @@
         <v>31326</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22120</v>
+        <v>21628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44875</v>
+        <v>44115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03155022567636558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02227864214946245</v>
+        <v>0.02178314888564122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04519680572880261</v>
+        <v>0.04443133323578911</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>103</v>
@@ -1716,19 +1716,19 @@
         <v>105209</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>87722</v>
+        <v>87406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>129166</v>
+        <v>128361</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04975665174858225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04148664928078328</v>
+        <v>0.04133685790456796</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06108644263070358</v>
+        <v>0.06070570609511231</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>295463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>264821</v>
+        <v>267265</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>324751</v>
+        <v>325980</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2634308938013949</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2361116348911942</v>
+        <v>0.2382903713483404</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2895441365047985</v>
+        <v>0.2906401057656959</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>245</v>
@@ -1766,19 +1766,19 @@
         <v>243710</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>216228</v>
+        <v>217895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>272792</v>
+        <v>272508</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2454572509211496</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2177782447894529</v>
+        <v>0.219457445683333</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2747486246214886</v>
+        <v>0.274462190380751</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>536</v>
@@ -1787,19 +1787,19 @@
         <v>539172</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>501508</v>
+        <v>498564</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>583754</v>
+        <v>577238</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.254991128119474</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2371784783384696</v>
+        <v>0.2357861216690025</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2760751830249777</v>
+        <v>0.2729935662498492</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>473573</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>440539</v>
+        <v>440939</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>506722</v>
+        <v>510748</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4222325103952026</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3927789442895661</v>
+        <v>0.3931363223921867</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4517870709875236</v>
+        <v>0.455376979685521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>407</v>
@@ -1837,19 +1837,19 @@
         <v>412950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>382262</v>
+        <v>382313</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>446176</v>
+        <v>443431</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4159110477247128</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3850037103322876</v>
+        <v>0.3850549564525337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4493755372132945</v>
+        <v>0.4466110460984216</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>872</v>
@@ -1858,19 +1858,19 @@
         <v>886523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>840525</v>
+        <v>843272</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>930165</v>
+        <v>939433</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4192641826020326</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3975104222122454</v>
+        <v>0.3988094547404473</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4399036318295755</v>
+        <v>0.4442870459455861</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>258701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230744</v>
+        <v>229679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287847</v>
+        <v>288699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2306546223932461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2057283812695111</v>
+        <v>0.204778703897551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2566412507288977</v>
+        <v>0.2574008171309466</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>286</v>
@@ -1908,19 +1908,19 @@
         <v>292799</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262201</v>
+        <v>263857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>323464</v>
+        <v>321705</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2948988251194744</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2640815402051931</v>
+        <v>0.2657493930496131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3257835919101107</v>
+        <v>0.3240119944298505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>540</v>
@@ -1929,19 +1929,19 @@
         <v>551500</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>509193</v>
+        <v>515042</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>590268</v>
+        <v>593600</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2608213515890913</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.240813117414132</v>
+        <v>0.24357922924467</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2791559117343791</v>
+        <v>0.2807318787692</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>12793</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6691</v>
+        <v>6378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22233</v>
+        <v>23025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02860602267777146</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0149616308636722</v>
+        <v>0.01426239137033741</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04971629851596031</v>
+        <v>0.05148691732500371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2057,16 +2057,16 @@
         <v>990</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11467</v>
+        <v>11387</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01147215077649916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002901232841021695</v>
+        <v>0.00290072675852775</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03361167434792817</v>
+        <v>0.03337715579109247</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2075,19 +2075,19 @@
         <v>16706</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10264</v>
+        <v>9762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29183</v>
+        <v>28920</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02119141977597597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01301962791081586</v>
+        <v>0.01238301883462225</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03701763949017486</v>
+        <v>0.03668345944514944</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>24104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15997</v>
+        <v>16050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35212</v>
+        <v>35408</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05390023405038259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03577144120049714</v>
+        <v>0.03588973184716153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07873927446165979</v>
+        <v>0.07917808224680464</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2125,19 +2125,19 @@
         <v>10421</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5224</v>
+        <v>4904</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17483</v>
+        <v>17748</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03054706311002894</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01531290389276004</v>
+        <v>0.01437466187452469</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05124732665879463</v>
+        <v>0.05202138844284311</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>35</v>
@@ -2146,19 +2146,19 @@
         <v>34526</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24054</v>
+        <v>24126</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>47119</v>
+        <v>45974</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04379425858738088</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03051168736868772</v>
+        <v>0.03060303097271149</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05976881013935843</v>
+        <v>0.0583156618803258</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>117408</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98510</v>
+        <v>97812</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>138301</v>
+        <v>135980</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2625398383771864</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2202807037028452</v>
+        <v>0.2187220165129265</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3092598814643563</v>
+        <v>0.3040696019326378</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>72</v>
@@ -2196,19 +2196,19 @@
         <v>72899</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>59873</v>
+        <v>58514</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>89712</v>
+        <v>89618</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2136796269583472</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1754983241686934</v>
+        <v>0.1715167930111874</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2629624226920045</v>
+        <v>0.2626885002704668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>184</v>
@@ -2217,19 +2217,19 @@
         <v>190306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>168413</v>
+        <v>167516</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>218312</v>
+        <v>214812</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2413958104857695</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2136247910853899</v>
+        <v>0.2124873091965843</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2769193113968436</v>
+        <v>0.2724800981228332</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>175909</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>156627</v>
+        <v>155613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198953</v>
+        <v>196323</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3933563762643467</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3502387050448423</v>
+        <v>0.3479723554875767</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4448869531234597</v>
+        <v>0.4390054056301531</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -2267,19 +2267,19 @@
         <v>121439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104401</v>
+        <v>104936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137940</v>
+        <v>141102</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3559610950279589</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3060183487631131</v>
+        <v>0.3075885997434224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4043299453205888</v>
+        <v>0.4135959581172876</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>297</v>
@@ -2288,19 +2288,19 @@
         <v>297348</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>270092</v>
+        <v>271310</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>325628</v>
+        <v>324109</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3771737432689296</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3426001514561803</v>
+        <v>0.344145388876353</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4130458838679063</v>
+        <v>0.4111193301984351</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>116986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>97862</v>
+        <v>99277</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>136098</v>
+        <v>136327</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2615975286303129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2188328245899182</v>
+        <v>0.2219979659129847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3043331643850926</v>
+        <v>0.3048460458430177</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>130</v>
@@ -2338,19 +2338,19 @@
         <v>132485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113726</v>
+        <v>114559</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>150468</v>
+        <v>149982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3883400641271658</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3333539194414181</v>
+        <v>0.3357954018721095</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4410494636352387</v>
+        <v>0.4396263109925896</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>245</v>
@@ -2359,19 +2359,19 @@
         <v>249472</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>222798</v>
+        <v>223434</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>275815</v>
+        <v>277893</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3164447678819441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2826104362144431</v>
+        <v>0.2834163232959667</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3498596943541732</v>
+        <v>0.352495340226414</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>71032</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55922</v>
+        <v>56127</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88996</v>
+        <v>90397</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02199147075661895</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01731337189854366</v>
+        <v>0.01737694969763829</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02755293944395583</v>
+        <v>0.02798662511212629</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -2484,19 +2484,19 @@
         <v>40558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29467</v>
+        <v>28808</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>54067</v>
+        <v>55318</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01223877126517693</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008891960995223677</v>
+        <v>0.008692924517404074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01631512132615764</v>
+        <v>0.01669278869148524</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -2505,19 +2505,19 @@
         <v>111591</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>93789</v>
+        <v>92237</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>134525</v>
+        <v>132808</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01705259070480035</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01433233486650721</v>
+        <v>0.01409510963227405</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02055723747727872</v>
+        <v>0.0202948775651543</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>225939</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>195913</v>
+        <v>197328</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>253956</v>
+        <v>253223</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06995033075631088</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.060654394816829</v>
+        <v>0.06109233252404257</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07862434810410666</v>
+        <v>0.07839730035734015</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>139</v>
@@ -2555,19 +2555,19 @@
         <v>142532</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>120805</v>
+        <v>121047</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>170130</v>
+        <v>166992</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04301033653782142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03645392570090068</v>
+        <v>0.03652710325626437</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05133804788890607</v>
+        <v>0.05039117022583341</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>361</v>
@@ -2576,19 +2576,19 @@
         <v>368472</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>331971</v>
+        <v>332791</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>411732</v>
+        <v>408839</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05630760546178496</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05072978180341756</v>
+        <v>0.05085514986042162</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06291837312175173</v>
+        <v>0.06247630854512345</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>887434</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>836179</v>
+        <v>834859</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>937098</v>
+        <v>941106</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2747479415933459</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2588794367245564</v>
+        <v>0.2584707871788059</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2901236389894118</v>
+        <v>0.2913645576616513</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>767</v>
@@ -2626,19 +2626,19 @@
         <v>775596</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>728933</v>
+        <v>730123</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>824896</v>
+        <v>830250</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2340427174749159</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2199618038462981</v>
+        <v>0.2203207134787565</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2489192297348878</v>
+        <v>0.2505348609276733</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1635</v>
@@ -2647,19 +2647,19 @@
         <v>1663031</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1595904</v>
+        <v>1587003</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1738815</v>
+        <v>1726305</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2541343443447349</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2438764485749464</v>
+        <v>0.2425162612021062</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2657152474752777</v>
+        <v>0.2638034597758363</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1368454</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1307699</v>
+        <v>1308844</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1421287</v>
+        <v>1425735</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4236707225477902</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4048609945505788</v>
+        <v>0.4052156254032948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4400276201703326</v>
+        <v>0.4414045738945117</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1400</v>
@@ -2697,19 +2697,19 @@
         <v>1436642</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1372100</v>
+        <v>1379123</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1493408</v>
+        <v>1496679</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4335187643952894</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4140427167761643</v>
+        <v>0.4161619183269182</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4506485342899657</v>
+        <v>0.4516355037578174</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2743</v>
@@ -2718,19 +2718,19 @@
         <v>2805096</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2728312</v>
+        <v>2727465</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2882644</v>
+        <v>2887613</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4286578850736907</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4169241861160188</v>
+        <v>0.4167947063388576</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4405083463263328</v>
+        <v>0.4412675922388017</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>677135</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>633324</v>
+        <v>628314</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>726032</v>
+        <v>719202</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2096395343459341</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1960758547023108</v>
+        <v>0.1945246846593858</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2247779590517747</v>
+        <v>0.2226636235183523</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>887</v>
@@ -2768,19 +2768,19 @@
         <v>918580</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>866700</v>
+        <v>865024</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>965430</v>
+        <v>968123</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2771894103267964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2615341760602568</v>
+        <v>0.2610283339975976</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2913265977176209</v>
+        <v>0.2921393082798938</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1549</v>
@@ -2789,19 +2789,19 @@
         <v>1595715</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1531805</v>
+        <v>1529855</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1668150</v>
+        <v>1663595</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2438475744149891</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2340812352645762</v>
+        <v>0.2337832248436962</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2549166761146586</v>
+        <v>0.2542206051439394</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>29493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20301</v>
+        <v>20264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42359</v>
+        <v>43117</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02830771425746379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01948553566074955</v>
+        <v>0.01944989364249038</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04065779533739816</v>
+        <v>0.04138527758800526</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3154,19 +3154,19 @@
         <v>15310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9004</v>
+        <v>9080</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25178</v>
+        <v>25472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01367050445093634</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008039672707663443</v>
+        <v>0.008107779222648753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02248140178209102</v>
+        <v>0.02274400421747111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -3175,19 +3175,19 @@
         <v>44803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33357</v>
+        <v>33471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59275</v>
+        <v>60420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02072479402442939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01543043475343179</v>
+        <v>0.01548311597226458</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02741967049610185</v>
+        <v>0.02794912931946394</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>49397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36239</v>
+        <v>35520</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64942</v>
+        <v>63995</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04741278013737221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03478318126795145</v>
+        <v>0.03409274910871323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06233335555270925</v>
+        <v>0.06142368575882076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -3225,19 +3225,19 @@
         <v>49656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36584</v>
+        <v>37101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65662</v>
+        <v>66657</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04433817518058415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03266653161556016</v>
+        <v>0.03312823815053422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05863053213521402</v>
+        <v>0.05951890036112836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -3246,19 +3246,19 @@
         <v>99053</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82009</v>
+        <v>80504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120942</v>
+        <v>121340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04581995715788476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0379355998762659</v>
+        <v>0.0372397743371615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05594554761177294</v>
+        <v>0.05612941780156481</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>308919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278749</v>
+        <v>281146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>338886</v>
+        <v>338574</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2965087784516759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2675506127251737</v>
+        <v>0.2698519601963599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3252717851597846</v>
+        <v>0.3249726739570196</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>238</v>
@@ -3296,19 +3296,19 @@
         <v>259689</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>227555</v>
+        <v>231478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>288591</v>
+        <v>291217</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2318801870682511</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2031870022706914</v>
+        <v>0.2066902831151765</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2576867199146618</v>
+        <v>0.2600319979017219</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>532</v>
@@ -3317,19 +3317,19 @@
         <v>568608</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>526875</v>
+        <v>528184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>612074</v>
+        <v>614592</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2630274346906992</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.243722302367885</v>
+        <v>0.2443280451426055</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2831340849891578</v>
+        <v>0.2842986802123626</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>391097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>356606</v>
+        <v>359715</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>422497</v>
+        <v>425517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3753852343070646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3422802598822144</v>
+        <v>0.3452646943453169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4055246606437369</v>
+        <v>0.4084230361618442</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>378</v>
@@ -3367,19 +3367,19 @@
         <v>409378</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>379448</v>
+        <v>375918</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>442508</v>
+        <v>439797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3655394097275565</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3388150668225947</v>
+        <v>0.3356625990082998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3951215708050806</v>
+        <v>0.39270101305581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>740</v>
@@ -3388,19 +3388,19 @@
         <v>800475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>755605</v>
+        <v>758167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>853407</v>
+        <v>847370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3702845284073948</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3495288071474806</v>
+        <v>0.3507138154173355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3947700499576938</v>
+        <v>0.39197749916798</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>262949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>236543</v>
+        <v>237106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>292335</v>
+        <v>292466</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2523854928464235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2270401120599446</v>
+        <v>0.2275809507295339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2805911947753288</v>
+        <v>0.2807167218990356</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>355</v>
@@ -3438,19 +3438,19 @@
         <v>385896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>355134</v>
+        <v>352880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419943</v>
+        <v>417565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3445717235726719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3171043270807624</v>
+        <v>0.3150919793438178</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3749733077208742</v>
+        <v>0.372850105698363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>600</v>
@@ -3459,19 +3459,19 @@
         <v>648845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>603175</v>
+        <v>608889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>693506</v>
+        <v>695289</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3001432857195919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.279017442595513</v>
+        <v>0.281660593426694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3208029611903802</v>
+        <v>0.3216274109632121</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>12844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7204</v>
+        <v>7249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23236</v>
+        <v>23963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01317275770422644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007388133395770619</v>
+        <v>0.007434029811900135</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02383054338895475</v>
+        <v>0.02457558660955073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3584,19 +3584,19 @@
         <v>12308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6219</v>
+        <v>6261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22067</v>
+        <v>23679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01126788160016387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005693410491314096</v>
+        <v>0.005731904088732265</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02020164066330313</v>
+        <v>0.02167753360255333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3605,19 +3605,19 @@
         <v>25153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15752</v>
+        <v>16461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36955</v>
+        <v>38461</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01216629212878668</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007619028101031895</v>
+        <v>0.007962032399045178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01787511595721743</v>
+        <v>0.01860336143578464</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>36763</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26463</v>
+        <v>25729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50952</v>
+        <v>50380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03770344919454343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02713985107651531</v>
+        <v>0.02638720601895719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0522551065754176</v>
+        <v>0.05166819645028351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -3655,19 +3655,19 @@
         <v>28389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19364</v>
+        <v>19004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41223</v>
+        <v>41081</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02598955402812115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01772741797163608</v>
+        <v>0.01739742241253717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03773849425268708</v>
+        <v>0.03760877621740882</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -3676,19 +3676,19 @@
         <v>65153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>50011</v>
+        <v>50033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84054</v>
+        <v>83416</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03151426333926904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02419036622859418</v>
+        <v>0.02420108045801982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04065671181782429</v>
+        <v>0.0403482326574429</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>226746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>201372</v>
+        <v>200962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>254554</v>
+        <v>253328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2325450888249679</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2065223979012493</v>
+        <v>0.2061013465141772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2610637779947301</v>
+        <v>0.2598068693183733</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>154</v>
@@ -3726,19 +3726,19 @@
         <v>166194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>144165</v>
+        <v>141817</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>192139</v>
+        <v>191176</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1521451795656425</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1319785547402706</v>
+        <v>0.1298288436540103</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1758970202562606</v>
+        <v>0.1750153967088962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>371</v>
@@ -3747,19 +3747,19 @@
         <v>392940</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>359019</v>
+        <v>360616</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>435075</v>
+        <v>430484</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1900647717243374</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1736572254783305</v>
+        <v>0.1744297523127687</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2104456243491469</v>
+        <v>0.2082248478340959</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>303284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>271976</v>
+        <v>273173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331825</v>
+        <v>333705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3110400020398923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2789318668175133</v>
+        <v>0.2801595694433905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3403117307919636</v>
+        <v>0.3422398238560058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>318</v>
@@ -3797,19 +3797,19 @@
         <v>336341</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>307469</v>
+        <v>303253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>369630</v>
+        <v>369573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3079093551430171</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2814782355386757</v>
+        <v>0.2776182696936433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3383842993993355</v>
+        <v>0.3383327857873991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>603</v>
@@ -3818,19 +3818,19 @@
         <v>639624</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>593952</v>
+        <v>595427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>685586</v>
+        <v>682072</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3093858848383367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2872943400182759</v>
+        <v>0.288007557685015</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3316173914122932</v>
+        <v>0.3299178474456204</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>395426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362439</v>
+        <v>366877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>425325</v>
+        <v>427420</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.40553870223637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3717083934693162</v>
+        <v>0.3762597612007248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4362021420811867</v>
+        <v>0.4383513466213005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -3868,19 +3868,19 @@
         <v>549105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>516020</v>
+        <v>514517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584464</v>
+        <v>584800</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5026880296630554</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4723998711903865</v>
+        <v>0.4710239571194857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.535058569067058</v>
+        <v>0.5353662898098154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>881</v>
@@ -3889,19 +3889,19 @@
         <v>944531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>897317</v>
+        <v>901669</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>990278</v>
+        <v>997678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4568687879692702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4340318002722878</v>
+        <v>0.436136907619598</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4789968454817723</v>
+        <v>0.4825761255814822</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>6699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2899</v>
+        <v>2800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13368</v>
+        <v>13617</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007585997826539469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003283434651856538</v>
+        <v>0.003170749615644132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01513858245276405</v>
+        <v>0.01541999749677098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4014,19 +4014,19 @@
         <v>5830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2710</v>
+        <v>2661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12922</v>
+        <v>12255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006665273829641966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00309791840010912</v>
+        <v>0.003042423986786392</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01477385508065525</v>
+        <v>0.01401135372290037</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -4035,19 +4035,19 @@
         <v>12529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6612</v>
+        <v>6796</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19879</v>
+        <v>21227</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00712784180813389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003761480133033217</v>
+        <v>0.003866128558383817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01130931306197302</v>
+        <v>0.01207666842889286</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>40522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29894</v>
+        <v>29487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56822</v>
+        <v>56107</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04588757519879776</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03385243216185389</v>
+        <v>0.03339193633786668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06434640507111312</v>
+        <v>0.06353647990841504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -4085,19 +4085,19 @@
         <v>18839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11902</v>
+        <v>10944</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30472</v>
+        <v>29288</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02153865430188658</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.013607678048614</v>
+        <v>0.01251243642520739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03483924067198784</v>
+        <v>0.03348602763876912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -4106,19 +4106,19 @@
         <v>59361</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45666</v>
+        <v>45301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76086</v>
+        <v>76132</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03377145279057178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02598053443995043</v>
+        <v>0.02577262946162924</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04328693907311023</v>
+        <v>0.04331312819749349</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>160528</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>137304</v>
+        <v>136281</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183336</v>
+        <v>183895</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1817840705385411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1554853001946233</v>
+        <v>0.1543266501106282</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2076121659042916</v>
+        <v>0.20824530730824</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -4156,19 +4156,19 @@
         <v>102690</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85029</v>
+        <v>85384</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>122328</v>
+        <v>122995</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1174077707900709</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09721499369349439</v>
+        <v>0.09762128341739763</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1398600362281101</v>
+        <v>0.1406226228227971</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>252</v>
@@ -4177,19 +4177,19 @@
         <v>263218</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232922</v>
+        <v>231272</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>292277</v>
+        <v>290133</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1497501610587965</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1325140020081464</v>
+        <v>0.1315756472430359</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1662826047139552</v>
+        <v>0.1650625748518003</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>323181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>296398</v>
+        <v>294288</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>354332</v>
+        <v>353199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3659750885389427</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3356458604049766</v>
+        <v>0.3332562430304428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.401250871858644</v>
+        <v>0.3999677618642794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>284</v>
@@ -4227,19 +4227,19 @@
         <v>307553</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>277813</v>
+        <v>279627</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>335878</v>
+        <v>336787</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3516308980344671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3176294889830985</v>
+        <v>0.3197034979851957</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3840155424782979</v>
+        <v>0.3850556747704472</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>581</v>
@@ -4248,19 +4248,19 @@
         <v>630734</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>589941</v>
+        <v>590577</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>669724</v>
+        <v>674777</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3588373608041096</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3356295834702636</v>
+        <v>0.3359913436527271</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3810198072135826</v>
+        <v>0.3838944392396103</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>352139</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321577</v>
+        <v>322417</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>380043</v>
+        <v>381676</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.398767267897179</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3641586577812593</v>
+        <v>0.3651096432186997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4303661456698029</v>
+        <v>0.4322148177008098</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>412</v>
@@ -4298,19 +4298,19 @@
         <v>439735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>410070</v>
+        <v>410278</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>469549</v>
+        <v>471463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5027574030439336</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.46884150866034</v>
+        <v>0.4690788362019349</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5368447181786264</v>
+        <v>0.5390332546782736</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>745</v>
@@ -4319,19 +4319,19 @@
         <v>791874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>753908</v>
+        <v>747871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>839964</v>
+        <v>835948</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4505131835383882</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4289134457614634</v>
+        <v>0.4254789085103717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4778728280652531</v>
+        <v>0.4755877107617204</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>6571</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2819</v>
+        <v>2789</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13013</v>
+        <v>12499</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01309081883663569</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005615948888402196</v>
+        <v>0.005555354111494608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02592488625121403</v>
+        <v>0.02490084062272892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4444,19 +4444,19 @@
         <v>3003</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8007</v>
+        <v>8156</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006733004227233259</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002110790705528345</v>
+        <v>0.002108620100086654</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01795341362551887</v>
+        <v>0.01828814039908652</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4465,19 +4465,19 @@
         <v>9574</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4792</v>
+        <v>4911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17456</v>
+        <v>17233</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01009962056199213</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005054846350746101</v>
+        <v>0.005180399944103454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01841440612059385</v>
+        <v>0.01817928649453291</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>22041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14520</v>
+        <v>14683</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31865</v>
+        <v>32854</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04391089922029146</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.028926633525193</v>
+        <v>0.02925179224134952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06348274266455915</v>
+        <v>0.06545282277834436</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -4515,19 +4515,19 @@
         <v>7073</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3010</v>
+        <v>3104</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13471</v>
+        <v>15087</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01585974928541136</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006749715010585705</v>
+        <v>0.006961007630127528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03020626171998158</v>
+        <v>0.03382921307072506</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -4536,19 +4536,19 @@
         <v>29114</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19922</v>
+        <v>20387</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41482</v>
+        <v>42844</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03071351042526532</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02101653172437736</v>
+        <v>0.02150683336540388</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04376092514064919</v>
+        <v>0.04519733337441705</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>81415</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67069</v>
+        <v>63864</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101350</v>
+        <v>98678</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1621971763107891</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1336161547228583</v>
+        <v>0.1272322579326164</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2019126894160002</v>
+        <v>0.1965887331486513</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -4586,19 +4586,19 @@
         <v>54420</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41787</v>
+        <v>42167</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72571</v>
+        <v>69468</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1220249326324425</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09369811605885855</v>
+        <v>0.09454876878966775</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.162723281392921</v>
+        <v>0.1557656690336253</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>126</v>
@@ -4607,19 +4607,19 @@
         <v>135836</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>113161</v>
+        <v>112450</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>159505</v>
+        <v>158351</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1432971055535317</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1193766356764118</v>
+        <v>0.1186264900803306</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1682670062071642</v>
+        <v>0.1670492994638073</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>179328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157418</v>
+        <v>158208</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203301</v>
+        <v>203295</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3572607296145308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3136113606931412</v>
+        <v>0.3151865084185848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4050211608053079</v>
+        <v>0.4050082616280815</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>117</v>
@@ -4657,19 +4657,19 @@
         <v>126904</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>107429</v>
+        <v>107386</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>148103</v>
+        <v>149055</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.284552433741987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2408837113027368</v>
+        <v>0.2407879417314165</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3320854318045369</v>
+        <v>0.3342208638458805</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>276</v>
@@ -4678,19 +4678,19 @@
         <v>306232</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>277287</v>
+        <v>276353</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>334822</v>
+        <v>337811</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3230532318299001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.29251873025135</v>
+        <v>0.2915327748843611</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3532140886165643</v>
+        <v>0.3563669799470457</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>212597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>190152</v>
+        <v>189741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>235683</v>
+        <v>235592</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.423540376017753</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3788254686447398</v>
+        <v>0.3780063715668001</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4695337205141667</v>
+        <v>0.4693525939513112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>230</v>
@@ -4728,19 +4728,19 @@
         <v>254578</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>231971</v>
+        <v>230520</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>275017</v>
+        <v>275406</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5708298801129259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5201405071039038</v>
+        <v>0.5168857335815845</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6166594814206212</v>
+        <v>0.6175329563635718</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>426</v>
@@ -4749,19 +4749,19 @@
         <v>467175</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>435076</v>
+        <v>435717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>497676</v>
+        <v>497446</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4928365316293108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4589747403530332</v>
+        <v>0.4596507904789034</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5250133350731204</v>
+        <v>0.5247708698885351</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>55607</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41788</v>
+        <v>42424</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71760</v>
+        <v>73740</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01634559569130333</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01228372370501153</v>
+        <v>0.01247068564838289</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02109392141652265</v>
+        <v>0.02167586991047762</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -4874,19 +4874,19 @@
         <v>36451</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25998</v>
+        <v>26436</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51511</v>
+        <v>50115</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01031757055472907</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007358766346953072</v>
+        <v>0.007482928208819687</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01458028463512959</v>
+        <v>0.01418517543706891</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -4895,19 +4895,19 @@
         <v>92058</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>74218</v>
+        <v>74249</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112655</v>
+        <v>113214</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01327466885229729</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01070225510401118</v>
+        <v>0.01070668159906464</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01624478238422082</v>
+        <v>0.01632541678584996</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>148723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125281</v>
+        <v>126371</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>174373</v>
+        <v>175769</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0437172848515946</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03682635290221074</v>
+        <v>0.0371466400527122</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05125708414848078</v>
+        <v>0.05166739576827198</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>97</v>
@@ -4945,19 +4945,19 @@
         <v>103957</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85169</v>
+        <v>85437</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127522</v>
+        <v>126981</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0294254110825678</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02410753251630258</v>
+        <v>0.0241832304775983</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03609556486376384</v>
+        <v>0.03594256005141956</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>240</v>
@@ -4966,19 +4966,19 @@
         <v>252680</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>225154</v>
+        <v>222036</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>288020</v>
+        <v>284019</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03643640964908454</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03246720722252129</v>
+        <v>0.03201746470178102</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04153233158036854</v>
+        <v>0.04095550083249623</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>777608</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>734470</v>
+        <v>729123</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>830382</v>
+        <v>828353</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2285779698074548</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2158976159020365</v>
+        <v>0.2143257558759805</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.244090956202663</v>
+        <v>0.2434944890036517</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>543</v>
@@ -5016,19 +5016,19 @@
         <v>582994</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>537547</v>
+        <v>539111</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>627104</v>
+        <v>627576</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1650189395066245</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1521549973425627</v>
+        <v>0.1525977709803217</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1775044001477609</v>
+        <v>0.1776381240480341</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1281</v>
@@ -5037,19 +5037,19 @@
         <v>1360602</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1292944</v>
+        <v>1294635</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1429589</v>
+        <v>1425781</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1961983549933497</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1864421790272779</v>
+        <v>0.186685976961785</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2061463329895755</v>
+        <v>0.2055971287922177</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>1196889</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1138851</v>
+        <v>1137416</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1255917</v>
+        <v>1253883</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3518256958129491</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3347654621066194</v>
+        <v>0.3343436532258943</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3691768286118231</v>
+        <v>0.3685789199996666</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1097</v>
@@ -5087,19 +5087,19 @@
         <v>1180176</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1124573</v>
+        <v>1122529</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1234137</v>
+        <v>1242549</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3340538779704894</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3183153696435178</v>
+        <v>0.3177368726343296</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3493277753174419</v>
+        <v>0.3517089511749541</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2200</v>
@@ -5108,19 +5108,19 @@
         <v>2377065</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2286776</v>
+        <v>2301614</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2457037</v>
+        <v>2457599</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3427719922941626</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.329752427640789</v>
+        <v>0.3318919905903577</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3543040144223825</v>
+        <v>0.354384932271117</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>1223111</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1165358</v>
+        <v>1167761</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1284783</v>
+        <v>1279374</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3595334538366982</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3425572310155558</v>
+        <v>0.3432634873363573</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3776620521069555</v>
+        <v>0.3760721689695551</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1505</v>
@@ -5158,19 +5158,19 @@
         <v>1629313</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1566985</v>
+        <v>1570455</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1686330</v>
+        <v>1692534</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4611842008855893</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4435418542849884</v>
+        <v>0.4445243004997467</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4773230388953436</v>
+        <v>0.4790790746004119</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2652</v>
@@ -5179,19 +5179,19 @@
         <v>2852424</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2772199</v>
+        <v>2771058</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2939620</v>
+        <v>2930830</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.411318574211106</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3997501709976268</v>
+        <v>0.3995856601728004</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4238922140244581</v>
+        <v>0.4226247492002218</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>14091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7977</v>
+        <v>8822</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23375</v>
+        <v>22980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01257342489402556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007117504309309126</v>
+        <v>0.007871358263943801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02085706765227264</v>
+        <v>0.0205045605731871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5544,19 +5544,19 @@
         <v>9957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5077</v>
+        <v>4943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18217</v>
+        <v>17082</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007951544829444162</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00405486296080395</v>
+        <v>0.003947360567811647</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01454865710079005</v>
+        <v>0.01364171212170885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -5565,19 +5565,19 @@
         <v>24048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15276</v>
+        <v>16105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34718</v>
+        <v>35210</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01013447361590031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006437968382254561</v>
+        <v>0.006787068539138457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0146311247134484</v>
+        <v>0.01483852955559128</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>42656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30260</v>
+        <v>30744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56713</v>
+        <v>57922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03806114146956065</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02700079218751532</v>
+        <v>0.02743232185675365</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05060414243980502</v>
+        <v>0.05168356307305779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -5615,19 +5615,19 @@
         <v>36177</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25767</v>
+        <v>25984</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51008</v>
+        <v>50289</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02889223457644375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02057848859034897</v>
+        <v>0.0207516904390544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04073626350998397</v>
+        <v>0.04016231081061057</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -5636,19 +5636,19 @@
         <v>78833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62486</v>
+        <v>62218</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98614</v>
+        <v>99176</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03322273872576201</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0263334972913433</v>
+        <v>0.02622058509129668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04155905031702739</v>
+        <v>0.04179590399454599</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>224215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>198420</v>
+        <v>199339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>252309</v>
+        <v>250363</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2000650842155591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1770484370795478</v>
+        <v>0.1778686750925799</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2251333805067291</v>
+        <v>0.2233961435798535</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>242</v>
@@ -5686,19 +5686,19 @@
         <v>252527</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>225062</v>
+        <v>225938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>282354</v>
+        <v>282849</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2016745967492223</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1797401463120072</v>
+        <v>0.180439607077841</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.225494650620287</v>
+        <v>0.2258897646449929</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>453</v>
@@ -5707,19 +5707,19 @@
         <v>476743</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>435540</v>
+        <v>439714</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>516007</v>
+        <v>519026</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2009144188145286</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1835503581727732</v>
+        <v>0.1853094634609891</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2174616639032176</v>
+        <v>0.2187339204424496</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>555824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>520948</v>
+        <v>522765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>588809</v>
+        <v>591336</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4959561669482761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4648374272745159</v>
+        <v>0.4664585523134117</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5253883915313489</v>
+        <v>0.5276432994362318</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>515</v>
@@ -5757,19 +5757,19 @@
         <v>547753</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>510270</v>
+        <v>508567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>583977</v>
+        <v>582954</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4374491799117307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4075138222172082</v>
+        <v>0.4061542763620324</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4663782155919936</v>
+        <v>0.4655616481788633</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1043</v>
@@ -5778,19 +5778,19 @@
         <v>1103577</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1056416</v>
+        <v>1051544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1152457</v>
+        <v>1150549</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.465082217642332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4452073017869217</v>
+        <v>0.4431539562421477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4856819841792143</v>
+        <v>0.4848776658001501</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>283926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>255864</v>
+        <v>253843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317094</v>
+        <v>312140</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2533441824725786</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2283047193794358</v>
+        <v>0.2265018624560026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2829396037527835</v>
+        <v>0.2785198121562849</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -5828,19 +5828,19 @@
         <v>405738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>373770</v>
+        <v>373834</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>440139</v>
+        <v>443576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3240324439331591</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2985020336803231</v>
+        <v>0.2985529286734164</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3515060646414261</v>
+        <v>0.3542507456533298</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>648</v>
@@ -5849,19 +5849,19 @@
         <v>689664</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>646652</v>
+        <v>647351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736599</v>
+        <v>736462</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.290646151201477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2725196415924164</v>
+        <v>0.2728143365382532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3104260787778835</v>
+        <v>0.3103685305195245</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>13242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7570</v>
+        <v>7265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23225</v>
+        <v>21275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01468166796837604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008392825325929866</v>
+        <v>0.008054681609089771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02575037685339701</v>
+        <v>0.02358851689076278</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5974,19 +5974,19 @@
         <v>15034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8258</v>
+        <v>8444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25009</v>
+        <v>23724</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01497115484428417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008223624932589773</v>
+        <v>0.008409150165702631</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02490513000072169</v>
+        <v>0.02362555237100855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -5995,19 +5995,19 @@
         <v>28275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19302</v>
+        <v>18908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40641</v>
+        <v>40350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01483417588726947</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01012659037223571</v>
+        <v>0.009919599860897426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02132151174313316</v>
+        <v>0.02116889806793937</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>40297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29028</v>
+        <v>28836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57241</v>
+        <v>54177</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04467909254057331</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03218459759003777</v>
+        <v>0.03197133970626928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06346528095353395</v>
+        <v>0.06006809233684499</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -6045,19 +6045,19 @@
         <v>21607</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13347</v>
+        <v>13625</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31898</v>
+        <v>33358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02151674191182872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01329196664857269</v>
+        <v>0.01356860788303155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03176508829610587</v>
+        <v>0.03321882083998413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -6066,19 +6066,19 @@
         <v>61904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48096</v>
+        <v>48381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80384</v>
+        <v>79325</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03247666754293379</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02523277417876409</v>
+        <v>0.02538202192747581</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04217211688332585</v>
+        <v>0.04161620079239833</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>224685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>199348</v>
+        <v>200857</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>253924</v>
+        <v>252784</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2491170810812576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2210248919877057</v>
+        <v>0.2226971648115633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2815354605144302</v>
+        <v>0.2802705834527741</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>182</v>
@@ -6116,19 +6116,19 @@
         <v>189642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>165979</v>
+        <v>166451</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>214987</v>
+        <v>216388</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1888536491658028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1652885650967805</v>
+        <v>0.1657590591677538</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2140933153192927</v>
+        <v>0.2154877090290221</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>393</v>
@@ -6137,19 +6137,19 @@
         <v>414328</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381397</v>
+        <v>377120</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>455668</v>
+        <v>453137</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2173690076738847</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2000927880678635</v>
+        <v>0.1978487063441111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2390574182889777</v>
+        <v>0.2377299282912705</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>400081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>369599</v>
+        <v>371051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>429102</v>
+        <v>429630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.443584493727183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4097876400602223</v>
+        <v>0.4113976798146569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4757615464099951</v>
+        <v>0.476346685223616</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>413</v>
@@ -6187,19 +6187,19 @@
         <v>435139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>402537</v>
+        <v>402858</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>463733</v>
+        <v>467180</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4333294191115181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4008629529325904</v>
+        <v>0.4011823083635964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4618040533583114</v>
+        <v>0.4652367113229124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>806</v>
@@ -6208,19 +6208,19 @@
         <v>835219</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>787230</v>
+        <v>790399</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>878076</v>
+        <v>880844</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.438181899627448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4130054290580834</v>
+        <v>0.4146676435758275</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4606659770803796</v>
+        <v>0.4621180232347539</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>223622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196666</v>
+        <v>198678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248590</v>
+        <v>250713</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2479376646826101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.218051212775153</v>
+        <v>0.220281442494877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2756209473058532</v>
+        <v>0.2779744743083183</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -6258,19 +6258,19 @@
         <v>342754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>313555</v>
+        <v>314651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377846</v>
+        <v>375282</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3413290349665662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3122510378117408</v>
+        <v>0.3133425509362631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.376274496549855</v>
+        <v>0.3737217061463083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>541</v>
@@ -6279,19 +6279,19 @@
         <v>566376</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>520146</v>
+        <v>525033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>607715</v>
+        <v>609899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.297138249268464</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2728845594908252</v>
+        <v>0.2754484803059302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3188260883493809</v>
+        <v>0.319971893678711</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>6007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2587</v>
+        <v>2048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13027</v>
+        <v>12297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007318681041325646</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003151380691249557</v>
+        <v>0.00249495185753198</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0158714125990891</v>
+        <v>0.01498271545849457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6404,19 +6404,19 @@
         <v>6429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2502</v>
+        <v>2838</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14501</v>
+        <v>13857</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008392586395066608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00326565501144501</v>
+        <v>0.003704180882524397</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01892822448154189</v>
+        <v>0.01808800471813923</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6425,19 +6425,19 @@
         <v>12436</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7160</v>
+        <v>6974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21531</v>
+        <v>21829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007837132937528872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004512311804958126</v>
+        <v>0.004394946398233322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0135686708202942</v>
+        <v>0.01375607620181549</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>31354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21136</v>
+        <v>20511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45716</v>
+        <v>43982</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03820117912111065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02575104323689135</v>
+        <v>0.0249902271341344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05569891642234541</v>
+        <v>0.053586030022392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -6475,19 +6475,19 @@
         <v>20183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13049</v>
+        <v>12480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31841</v>
+        <v>30774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02634566717481013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01703334120185772</v>
+        <v>0.01629055029978408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04156321577490099</v>
+        <v>0.04016980888701997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -6496,19 +6496,19 @@
         <v>51537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38662</v>
+        <v>38822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68932</v>
+        <v>68082</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03247766482107661</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02436388878022818</v>
+        <v>0.02446462454093865</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04343951524014267</v>
+        <v>0.04290406650194719</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>194186</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>169803</v>
+        <v>169132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>218773</v>
+        <v>220928</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2365911056042234</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2068834968961341</v>
+        <v>0.206066281943876</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2665475154500644</v>
+        <v>0.2691730946364654</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>147</v>
@@ -6546,19 +6546,19 @@
         <v>151082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>131206</v>
+        <v>129400</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175658</v>
+        <v>174044</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1972123193410522</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1712674019761505</v>
+        <v>0.1689093106171661</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2292918108335248</v>
+        <v>0.2271854774874435</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>331</v>
@@ -6567,19 +6567,19 @@
         <v>345268</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>309196</v>
+        <v>315452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>379166</v>
+        <v>376490</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2175801133066217</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1948485200417025</v>
+        <v>0.1987906286361796</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.238941888135777</v>
+        <v>0.2372558301931153</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>364507</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>334466</v>
+        <v>335787</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>392044</v>
+        <v>394540</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4441063101325103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4075049626344327</v>
+        <v>0.4091143894115449</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.477656228555983</v>
+        <v>0.4806975566796244</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>316</v>
@@ -6617,19 +6617,19 @@
         <v>331540</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>303927</v>
+        <v>307112</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>361199</v>
+        <v>363018</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4327697679322757</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3967253824270888</v>
+        <v>0.4008831910347515</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4714840703386532</v>
+        <v>0.4738582472335983</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>666</v>
@@ -6638,19 +6638,19 @@
         <v>696047</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>657196</v>
+        <v>655023</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>731854</v>
+        <v>736473</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4386333401173917</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4141500313056407</v>
+        <v>0.4127811900298051</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4611979483122826</v>
+        <v>0.4641085481361329</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>224711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199918</v>
+        <v>199634</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252110</v>
+        <v>249060</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2737827241008299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2435752086958635</v>
+        <v>0.2432295245816803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3071646386969373</v>
+        <v>0.3034480562661163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -6688,19 +6688,19 @@
         <v>256854</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228437</v>
+        <v>231017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>285732</v>
+        <v>282842</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3352796591567954</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2981857001496377</v>
+        <v>0.3015542793179843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3729754423714826</v>
+        <v>0.3692031486801033</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>449</v>
@@ -6709,19 +6709,19 @@
         <v>481565</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>446678</v>
+        <v>444483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>519455</v>
+        <v>517932</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.303471748817381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2814867196639119</v>
+        <v>0.2801034855564328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3273490895496201</v>
+        <v>0.3263892557574906</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>5061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12148</v>
+        <v>11897</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009988187942683961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003703084704421497</v>
+        <v>0.003685040059232884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02397430635450179</v>
+        <v>0.02347924032107397</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6834,19 +6834,19 @@
         <v>11978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6188</v>
+        <v>6224</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21118</v>
+        <v>21128</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02451573020023637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01266614913531943</v>
+        <v>0.01273871559292174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04322296737337676</v>
+        <v>0.04324331301457233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6855,19 +6855,19 @@
         <v>17039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10162</v>
+        <v>10178</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26064</v>
+        <v>27770</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01711974931194404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01020996235002651</v>
+        <v>0.01022646452873163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02618748331563906</v>
+        <v>0.02790129718090108</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>24637</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16554</v>
+        <v>16689</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35959</v>
+        <v>36761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04862212831588131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03266930010966539</v>
+        <v>0.0329373350520524</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07096637021283136</v>
+        <v>0.07255032000909771</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -6905,19 +6905,19 @@
         <v>13137</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6755</v>
+        <v>7182</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21343</v>
+        <v>21731</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0268868636695489</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0138258412030148</v>
+        <v>0.01469899410306231</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04368307565813874</v>
+        <v>0.04447711874130294</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>36</v>
@@ -6926,19 +6926,19 @@
         <v>37773</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26640</v>
+        <v>27584</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51674</v>
+        <v>53197</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03795230055325026</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0267665147186867</v>
+        <v>0.02771428676126977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05191846743869233</v>
+        <v>0.05344875759192338</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>109034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>91034</v>
+        <v>89962</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>128151</v>
+        <v>127730</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2151833109329186</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.179660057969555</v>
+        <v>0.177545339207182</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2529128693140252</v>
+        <v>0.2520815649253296</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -6976,19 +6976,19 @@
         <v>62973</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49576</v>
+        <v>48921</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79719</v>
+        <v>79996</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1288886931308412</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1014689023541956</v>
+        <v>0.1001274146428132</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1631621231155432</v>
+        <v>0.1637307814669459</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>165</v>
@@ -6997,19 +6997,19 @@
         <v>172007</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147361</v>
+        <v>146982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>196073</v>
+        <v>196532</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1728213372568535</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1480594077299252</v>
+        <v>0.147678171204285</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1970021422671695</v>
+        <v>0.1974624233232816</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>173946</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>152808</v>
+        <v>154047</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194821</v>
+        <v>197331</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3432921869509968</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3015742672921995</v>
+        <v>0.3040196788675663</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3844888538926655</v>
+        <v>0.3894424009996839</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -7047,19 +7047,19 @@
         <v>160577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139108</v>
+        <v>140795</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183759</v>
+        <v>181956</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3286568454160553</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2847152165015404</v>
+        <v>0.2881696403941012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3761034838807008</v>
+        <v>0.3724143818854749</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>313</v>
@@ -7068,19 +7068,19 @@
         <v>334523</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303669</v>
+        <v>304950</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>363150</v>
+        <v>369274</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3361077069841769</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3051072655928316</v>
+        <v>0.3063944354775361</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.36487017053542</v>
+        <v>0.3710231458421442</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>194023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>170102</v>
+        <v>172151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>216957</v>
+        <v>218668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3829141858575193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3357055126867511</v>
+        <v>0.3397481118243103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4281749654472992</v>
+        <v>0.4315520066442246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>220</v>
@@ -7118,19 +7118,19 @@
         <v>239921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>216685</v>
+        <v>218308</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>262880</v>
+        <v>263109</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4910518675833182</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.443495941825434</v>
+        <v>0.446817763544908</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.538043833180564</v>
+        <v>0.5385126143406549</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>395</v>
@@ -7139,19 +7139,19 @@
         <v>433944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>399263</v>
+        <v>401290</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>463698</v>
+        <v>465470</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4359989058937753</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4011543969001309</v>
+        <v>0.4031904059752848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4658938313684764</v>
+        <v>0.4676745858259083</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>38401</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27172</v>
+        <v>28389</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50617</v>
+        <v>52832</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01146260248866064</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008110891881459805</v>
+        <v>0.00847412581932285</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01510901507715214</v>
+        <v>0.01577020568197416</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -7264,19 +7264,19 @@
         <v>43398</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31191</v>
+        <v>32492</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>57784</v>
+        <v>59406</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01236048940456247</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008883815825486667</v>
+        <v>0.009254271709390246</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01645800036584397</v>
+        <v>0.01691990511515475</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>79</v>
@@ -7285,19 +7285,19 @@
         <v>81799</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>64675</v>
+        <v>65577</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>101205</v>
+        <v>101360</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01192207412154513</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009426292108197249</v>
+        <v>0.009557801729474317</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01475059318352297</v>
+        <v>0.01477318767978639</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>138944</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>116733</v>
+        <v>117680</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>165285</v>
+        <v>164815</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04147450032574803</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03484466311891184</v>
+        <v>0.03512720574378524</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04933735460154361</v>
+        <v>0.04919694129633426</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -7335,19 +7335,19 @@
         <v>91104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>74416</v>
+        <v>73495</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111820</v>
+        <v>112069</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02594806645145113</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02119494617646119</v>
+        <v>0.02093279435290249</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03184844291135186</v>
+        <v>0.03191943487428181</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>215</v>
@@ -7356,19 +7356,19 @@
         <v>230048</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>201070</v>
+        <v>198603</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>263316</v>
+        <v>258176</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03352922815533108</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02930573527549801</v>
+        <v>0.02894621031928945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03837810048595434</v>
+        <v>0.03762897366895458</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>752120</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>705121</v>
+        <v>701652</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>802143</v>
+        <v>801873</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2245064153031728</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2104774144814849</v>
+        <v>0.2094419904255773</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2394382724977117</v>
+        <v>0.2393577107360894</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>633</v>
@@ -7406,19 +7406,19 @@
         <v>656225</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>610775</v>
+        <v>613105</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>704369</v>
+        <v>704238</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.186905279779026</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1739603889542082</v>
+        <v>0.1746238770557382</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2006175136956812</v>
+        <v>0.2005803806502427</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1342</v>
@@ -7427,19 +7427,19 @@
         <v>1408345</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1342711</v>
+        <v>1340379</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1481206</v>
+        <v>1475587</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.205264955346895</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1956989342297996</v>
+        <v>0.1953590088493594</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2158843497788809</v>
+        <v>0.2150654338377576</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1494357</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1440579</v>
+        <v>1431659</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1556969</v>
+        <v>1551538</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4460631067881271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4300103160263233</v>
+        <v>0.4273478725918712</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4647526716357447</v>
+        <v>0.4631314975961878</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1393</v>
@@ -7477,19 +7477,19 @@
         <v>1475009</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1415210</v>
+        <v>1419096</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1532897</v>
+        <v>1535084</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4201104999099704</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4030785813445317</v>
+        <v>0.4041852963865863</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4365980695746138</v>
+        <v>0.4372208484766777</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2828</v>
@@ -7498,19 +7498,19 @@
         <v>2969367</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2889562</v>
+        <v>2892927</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3049561</v>
+        <v>3055520</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4327824960021472</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4211510045394633</v>
+        <v>0.4216414451154376</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4444706353787589</v>
+        <v>0.4453391746839341</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>926281</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>874589</v>
+        <v>871651</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>979319</v>
+        <v>976092</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2764933750942914</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2610632305077747</v>
+        <v>0.2601862523518638</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2923250893266539</v>
+        <v>0.2913618080460204</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1154</v>
@@ -7548,19 +7548,19 @@
         <v>1245267</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1187587</v>
+        <v>1188829</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1298611</v>
+        <v>1309851</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.35467566445499</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3382471067459766</v>
+        <v>0.3386010171124811</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3698689196656136</v>
+        <v>0.3730702626271166</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2033</v>
@@ -7569,19 +7569,19 @@
         <v>2171549</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2090200</v>
+        <v>2091749</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2250282</v>
+        <v>2254493</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3165012463740816</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3046447783932259</v>
+        <v>0.3048705053516708</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3279764966938478</v>
+        <v>0.328590250730051</v>
       </c>
     </row>
     <row r="33">
